--- a/diseño/parcial3.xlsx
+++ b/diseño/parcial3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVILES\Documents\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVILES\Documents\insaforn\git\repo\analistadedatos\diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,19 +138,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>230264</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>141466</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>2238</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182548</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>143650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -163,8 +163,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="992264" y="5094466"/>
-          <a:ext cx="10056736" cy="5004272"/>
+          <a:off x="1104900" y="5638800"/>
+          <a:ext cx="11269648" cy="5553850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
